--- a/biology/Histoire de la zoologie et de la botanique/Oronzio_Gabriele_Costa/Oronzio_Gabriele_Costa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Oronzio_Gabriele_Costa/Oronzio_Gabriele_Costa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oronzio[1] Gabriele Costa est un zoologiste italien, né le 26 août 1787 à Alessano, Lecce et mort le 7 novembre 1867 à Naples.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oronzio Gabriele Costa est un zoologiste italien, né le 26 août 1787 à Alessano, Lecce et mort le 7 novembre 1867 à Naples.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Domenico et Vita Manera. Il s'installe à Naples en 1808 et étudie à l'université de la ville où il est diplômé de médecine. Il retourne alors à Lecce où il pratique la médecine. C'est le sculpteur Pasquale Manni (1796-1876) qui l'initie à la botanique et à l'histoire naturelle.
 Après avoir été persécuté pour son adhésion au gouvernement constitutionnel des années 1820-1821, Oronzo Gabriele Costa obtient la chaire de zoologie de l’université de Naples. Il fait paraître 126 publications sur des sujets variés, principalement en entomologie. En 1849, à nouveau à cause de ses idées libérales, il perd sa place qu'il ne retrouve qu'après l'unification de l'Italie. Il participe à la fondation du Giornale meteorologico economico (1820) et de l'Accademia Degli Aspiranti Naturalisti (1841).
